--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,108 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>67000</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>66800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>66000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>40100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -769,19 +783,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>25900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -798,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,54 +921,66 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>40600</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,54 +989,62 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>65900</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>72000</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>99300</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-5200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
+        <v>-33300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1055,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,25 +1074,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>-900</v>
       </c>
       <c r="F20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,13 +1105,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>4300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1066,83 +1140,101 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+        <v>-3100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1153,8 +1245,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,25 +1490,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+        <v>-1700</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,37 +1525,49 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,37 +1704,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,86 +1770,104 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>54300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+        <v>49100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>55000</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>103500</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+        <v>108800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>121100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>5100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1677,80 +1875,98 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>222600</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>193800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>305000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>304300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>303000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>301400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>20300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1764,37 +1980,49 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>269700</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+        <v>288400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>382100</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>540300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>552400</v>
+      </c>
+      <c r="F54" s="3">
         <v>306000</v>
       </c>
-      <c r="E54" s="3">
-        <v>305400</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>599900</v>
+      </c>
+      <c r="H54" s="3">
         <v>304200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>302700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,138 +2224,164 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+        <v>21900</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>26200</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>63800</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>126300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>127800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2109,22 +2395,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F62" s="3">
         <v>11300</v>
       </c>
-      <c r="E62" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>60700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>244200</v>
+      </c>
+      <c r="F66" s="3">
         <v>11800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
+        <v>112100</v>
+      </c>
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F72" s="3">
         <v>4100</v>
       </c>
-      <c r="E72" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1300</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>308200</v>
+      </c>
+      <c r="F76" s="3">
         <v>294300</v>
       </c>
-      <c r="E76" s="3">
-        <v>294100</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>487800</v>
+      </c>
+      <c r="H76" s="3">
         <v>292900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>291400</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>6800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-15300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,28 +3390,34 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-300000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-298700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3425,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>190900</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>301400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E8" s="3">
         <v>67000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,8 +748,8 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -754,23 +757,26 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E9" s="3">
         <v>48400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,23 +795,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
         <v>18600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,23 +925,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>40600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,8 +954,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -944,22 +963,25 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2500</v>
       </c>
       <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>2500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -970,8 +992,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,22 +1016,23 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E17" s="3">
         <v>65900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1015,10 +1041,10 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1026,23 +1052,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,23 +1108,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,17 +1144,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,22 +1182,25 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1172,8 +1211,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1181,34 +1220,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1216,28 +1258,31 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,34 +1334,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1321,34 +1372,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1356,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,23 +1562,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,34 +1600,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1566,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,34 +1676,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1636,48 +1714,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,34 +1791,35 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
         <v>49100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1741,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,34 +1865,37 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E43" s="3">
         <v>54300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>55000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1811,34 +1903,37 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E44" s="3">
         <v>103500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>108800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
         <v>121100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1846,31 +1941,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1881,34 +1979,37 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E46" s="3">
         <v>212000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>222600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -1916,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,21 +2031,21 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>305000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>304300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>303000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>301400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,26 +2055,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E48" s="3">
         <v>53800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,34 +2093,37 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E49" s="3">
         <v>269700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>288400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
         <v>382100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2207,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2283,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>596500</v>
+      </c>
+      <c r="E54" s="3">
         <v>540300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>552400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>306000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>599900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>304200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>302700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,34 +2355,35 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E57" s="3">
         <v>21600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>26200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2261,8 +2391,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,14 +2405,14 @@
       <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2287,8 +2420,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2296,96 +2429,105 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>33200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>11300</v>
       </c>
       <c r="I59" s="3">
         <v>11300</v>
       </c>
       <c r="J59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E60" s="3">
         <v>61800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>11300</v>
       </c>
       <c r="I60" s="3">
         <v>11300</v>
       </c>
       <c r="J60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E61" s="3">
         <v>126300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>127800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>8400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E62" s="3">
         <v>45000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2695,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E66" s="3">
         <v>233100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>244200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11300</v>
       </c>
       <c r="I66" s="3">
         <v>11300</v>
       </c>
       <c r="J66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,34 +2901,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1300</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,34 +3053,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>308800</v>
+      </c>
+      <c r="E76" s="3">
         <v>307200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>308200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>294300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>487800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>292900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>291400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,74 +3129,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3016,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,17 +3228,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3051,14 +3249,14 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>6800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3066,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,34 +3454,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,17 +3510,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,14 +3531,14 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3326,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,32 +3622,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82200</v>
+      </c>
+      <c r="E94" s="3">
         <v>7900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-298700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,20 +3828,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>190900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3607,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>301400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3621,17 +3866,20 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3641,14 +3889,14 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3656,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E8" s="3">
         <v>75700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>67000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,8 +755,8 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -760,26 +764,29 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E9" s="3">
         <v>50500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,26 +805,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,26 +945,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>40600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +977,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -966,25 +986,28 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2500</v>
       </c>
       <c r="G15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>2500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -995,8 +1018,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,25 +1043,26 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E17" s="3">
         <v>82500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>65900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1044,10 +1071,10 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1055,26 +1082,29 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,26 +1142,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,25 +1181,28 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-28400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1185,25 +1222,28 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1254,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1223,37 +1263,40 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,31 +1304,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,37 +1427,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,26 +1632,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,37 +1673,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,37 +1755,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1717,51 +1796,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,37 +1878,38 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,37 +1958,40 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E43" s="3">
         <v>56400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>55000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1906,37 +1999,40 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E44" s="3">
         <v>111700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>103500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>108800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
         <v>121100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1944,34 +2040,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1982,37 +2081,40 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>303700</v>
+      </c>
+      <c r="E46" s="3">
         <v>190100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>212000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>222600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>193800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2034,21 +2139,21 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>305000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>304300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>303000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>301400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E48" s="3">
         <v>59500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,37 +2204,40 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>520700</v>
+      </c>
+      <c r="E49" s="3">
         <v>338100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>269700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>288400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
         <v>382100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,46 +2327,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>902300</v>
+      </c>
+      <c r="E54" s="3">
         <v>596500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>540300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>552400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>306000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>599900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>304200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>302700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,37 +2486,38 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E57" s="3">
         <v>25200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>26200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2394,13 +2525,16 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
         <v>7000</v>
@@ -2408,14 +2542,14 @@
       <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2423,8 +2557,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2432,105 +2566,114 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E59" s="3">
         <v>32700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>11300</v>
       </c>
       <c r="J59" s="3">
         <v>11300</v>
       </c>
       <c r="K59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E60" s="3">
         <v>64900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>61800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>11300</v>
       </c>
       <c r="J60" s="3">
         <v>11300</v>
       </c>
       <c r="K60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>385300</v>
+      </c>
+      <c r="E61" s="3">
         <v>172700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>126300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>127800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>8400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>611500</v>
+      </c>
+      <c r="E66" s="3">
         <v>287700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>244200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>11300</v>
       </c>
       <c r="J66" s="3">
         <v>11300</v>
       </c>
       <c r="K66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,37 +3075,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4100</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1300</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,37 +3239,40 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E76" s="3">
         <v>308800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>307200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>308200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>294300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>487800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>292900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>291400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,80 +3321,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,37 +3427,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>6800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,37 +3671,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8700</v>
       </c>
-      <c r="F89" s="3">
-        <v>16300</v>
-      </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>1300</v>
       </c>
       <c r="H89" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,37 +3731,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-210500</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-298700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,23 +4074,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E100" s="3">
         <v>46100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>190900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3855,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>301400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3878,28 +4127,28 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-3900</v>
-      </c>
       <c r="G102" s="3">
-        <v>-400</v>
+        <v>-4400</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,148 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>128900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>126500</v>
+      </c>
+      <c r="F8" s="3">
         <v>105800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>75700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>67000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>66800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>66000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F9" s="3">
         <v>70200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>50500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>48400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>40200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>40100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,32 +822,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F10" s="3">
         <v>35600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>18600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +982,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>40600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3">
         <v>4200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,73 +1096,81 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>120500</v>
+      </c>
+      <c r="F17" s="3">
         <v>114400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>82500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>65900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>72000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>99300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-33300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1186,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,32 +1209,34 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,32 +1252,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-28400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,119 +1299,137 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-15700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-31800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1348,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-28700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-29400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,32 +1769,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,49 +1816,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F41" s="3">
         <v>27800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>16900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>49100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>61600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,122 +2141,140 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>76100</v>
+      </c>
+      <c r="F43" s="3">
         <v>72200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>56400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>54300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>49100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>55000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>196000</v>
+      </c>
+      <c r="F44" s="3">
         <v>191800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>111700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>103500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>108800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
         <v>121100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>7300</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2084,49 +2282,61 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>320200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>312800</v>
+      </c>
+      <c r="F46" s="3">
         <v>303700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>190100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>212000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>222600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>193800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2142,59 +2352,65 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>305000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>304300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>303000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>301400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>72400</v>
+      </c>
+      <c r="F48" s="3">
         <v>68500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>59500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>53800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>37400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>20300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,49 +2423,61 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>512600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>519600</v>
+      </c>
+      <c r="F49" s="3">
         <v>520700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>338100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>269700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>288400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
         <v>382100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>918800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>914400</v>
+      </c>
+      <c r="F54" s="3">
         <v>902300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>596500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>540300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>552400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>306000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>599900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>304200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>302700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,49 +2747,57 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F57" s="3">
         <v>36900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>25200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>21600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>21900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2537,149 +2805,167 @@
         <v>3800</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>7000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>96300</v>
+      </c>
+      <c r="F59" s="3">
         <v>92400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>32700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>35000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>28100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>134300</v>
+      </c>
+      <c r="F60" s="3">
         <v>133000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>64900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>61800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>63800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>54300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>384700</v>
+      </c>
+      <c r="F61" s="3">
         <v>385300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>172700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>126300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>127800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>8400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>93300</v>
+      </c>
+      <c r="F62" s="3">
         <v>93200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>45000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>52600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>60700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>605300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>612200</v>
+      </c>
+      <c r="F66" s="3">
         <v>611500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>287700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>233100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>244200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>112100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-25400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4100</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1300</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>313500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>302100</v>
+      </c>
+      <c r="F76" s="3">
         <v>290800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>308800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>307200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>308200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>294300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>487800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>292900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>291400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>6800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>14600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-188100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-82200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-210500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-298700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,75 +4563,87 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>204100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>46100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>190900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>301400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -4153,51 +4651,63 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-32200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E8" s="3">
         <v>128900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +775,8 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -781,35 +784,38 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E9" s="3">
         <v>85900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>70200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>50500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,35 +834,38 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E10" s="3">
         <v>43000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,26 +1016,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>40600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1045,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1035,34 +1054,37 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="3">
         <v>4700</v>
       </c>
       <c r="F15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G15" s="3">
         <v>4200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2500</v>
       </c>
       <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>2500</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1095,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,34 +1123,35 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E17" s="3">
         <v>115400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>120500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1134,10 +1160,10 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1145,35 +1171,38 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>13500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,35 +1243,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,35 +1291,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E21" s="3">
         <v>20700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,25 +1353,25 @@
         <v>6600</v>
       </c>
       <c r="E22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>200</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1343,8 +1382,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1352,46 +1391,49 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1399,40 +1441,43 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1540,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>8800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,35 +1841,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1963,60 +2041,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,46 +2138,47 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E41" s="3">
         <v>33600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2100,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,46 +2236,49 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E43" s="3">
         <v>73000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>55000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2194,46 +2286,49 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E44" s="3">
         <v>193500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>196000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>191800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>111700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>103500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>108800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
         <v>121100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2241,43 +2336,46 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2288,46 +2386,49 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>318400</v>
+      </c>
+      <c r="E46" s="3">
         <v>320200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>312800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>303700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>190100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>212000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>222600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>193800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2335,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2358,21 +2462,21 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>305000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>304300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>303000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>301400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2486,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E48" s="3">
         <v>75500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>59500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,46 +2536,49 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E49" s="3">
         <v>512600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>520700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>338100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>269700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>288400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
         <v>382100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
         <v>10600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>922600</v>
+      </c>
+      <c r="E54" s="3">
         <v>918800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>914400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>902300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>596500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>540300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>552400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>306000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>599900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>304200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>302700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,46 +2878,47 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E57" s="3">
         <v>42000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>26200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2796,8 +2926,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,7 +2944,7 @@
         <v>3800</v>
       </c>
       <c r="G58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="H58" s="3">
         <v>7000</v>
@@ -2819,14 +2952,14 @@
       <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2834,8 +2967,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2843,132 +2976,141 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E59" s="3">
         <v>85900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>96300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>11300</v>
       </c>
       <c r="M59" s="3">
         <v>11300</v>
       </c>
       <c r="N59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E60" s="3">
         <v>131700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>134300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>11300</v>
       </c>
       <c r="M60" s="3">
         <v>11300</v>
       </c>
       <c r="N60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>383500</v>
+      </c>
+      <c r="E61" s="3">
         <v>384100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>384700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>385300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>172700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>126300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>127800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>8400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E62" s="3">
         <v>89500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>608700</v>
+      </c>
+      <c r="E66" s="3">
         <v>605300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>612200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>611500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>287700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>233100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>244200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>11300</v>
       </c>
       <c r="M66" s="3">
         <v>11300</v>
       </c>
       <c r="N66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3596,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1300</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,46 +3796,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>313900</v>
+      </c>
+      <c r="E76" s="3">
         <v>313500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>302100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>290800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>308800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>307200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>308200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>294300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>487800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>292900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>291400</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,98 +3896,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3807,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,46 +4023,47 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>3200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>6800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,46 +4321,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>16000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,46 +4393,47 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-188100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-210500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-298700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,32 +4811,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>204100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>46100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>190900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4602,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>301400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4616,46 +4861,49 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>600</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
       </c>
       <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4663,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,177 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F8" s="3">
         <v>132700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>128900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>126500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>105800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>75700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>67000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>66800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>66000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F9" s="3">
         <v>94000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>85900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>85100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>70200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>50500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>48400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,41 +851,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F10" s="3">
         <v>38700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>43000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>41400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>35600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +907,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +933,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +985,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1041,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1019,96 +1059,108 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>7200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>40600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E15" s="3">
         <v>4700</v>
       </c>
       <c r="F15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G15" s="3">
         <v>4700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I15" s="3">
         <v>4200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,91 +1176,99 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>123500</v>
+      </c>
+      <c r="F17" s="3">
         <v>126300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>115400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>120500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>114400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>82500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>65900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>72000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>99300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F18" s="3">
         <v>6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-33300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1284,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1310,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,32 +1321,32 @@
         <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,41 +1362,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F21" s="3">
         <v>13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>11800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-28400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,146 +1418,164 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
         <v>6600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>6600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1494,8 +1586,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-28700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-29400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1978,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,32 +1993,32 @@
         <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,58 +2034,70 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-29400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-29400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2311,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F41" s="3">
         <v>28300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>27800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>49100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,149 +2419,167 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F43" s="3">
         <v>69600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>73000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>76100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>72200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>56400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>49100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>55000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>228100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>215100</v>
+      </c>
+      <c r="F44" s="3">
         <v>212900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>193500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>196000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>191800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>111700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>103500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>108800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
         <v>121100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7300</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2389,144 +2587,162 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>325800</v>
+      </c>
+      <c r="F46" s="3">
         <v>318400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>320200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>312800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>303700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>190100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>212000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>222600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>193800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>305000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>304300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>303000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>301400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F48" s="3">
         <v>84900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>75500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>72400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>68500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>59500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>53800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>37400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,58 +2755,70 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>490700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>503100</v>
+      </c>
+      <c r="F49" s="3">
         <v>509600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>512600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>519600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>520700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>338100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>269700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>288400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
         <v>382100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,13 +2923,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9600</v>
+        <v>11300</v>
       </c>
       <c r="E52" s="3">
         <v>10600</v>
@@ -2704,43 +2944,49 @@
         <v>9600</v>
       </c>
       <c r="G52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I52" s="3">
         <v>9400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +3035,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>920700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>923600</v>
+      </c>
+      <c r="F54" s="3">
         <v>922600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>918800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>914400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>902300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>596500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>540300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>552400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>306000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>599900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>304200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>302700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3139,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F57" s="3">
         <v>55200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>34200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>21600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>21900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>26200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2947,176 +3215,194 @@
         <v>3800</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="I58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>7000</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F59" s="3">
         <v>92800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>85900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>96300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>92400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>32700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>33200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>28100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F60" s="3">
         <v>151700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>131700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>134300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>133000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>64900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>63800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>54300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>412900</v>
+      </c>
+      <c r="F61" s="3">
         <v>383500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>384100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>384700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>385300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>172700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>126300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>127800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3129,44 +3415,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>68900</v>
+      </c>
+      <c r="F62" s="3">
         <v>73500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>89500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>93300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>93200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>50200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>45000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>52600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>60700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3639,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>591300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>583600</v>
+      </c>
+      <c r="F66" s="3">
         <v>608700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>605300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>612200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>611500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>287700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>233100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>244200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>112100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3941,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-34800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-25400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4100</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>2800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1300</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +4165,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>340000</v>
+      </c>
+      <c r="F76" s="3">
         <v>313900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>313500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>302100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>290800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>308800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>307200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>308200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>294300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>487800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>292900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>291400</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-29400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4420,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>6800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>16000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-8700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-15300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4834,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4998,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-188100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-82200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-210500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-298700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,93 +5300,105 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>204100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>46100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>190900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>301400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
@@ -4908,60 +5406,72 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-32200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E8" s="3">
         <v>133500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>130600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>132700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>105800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>75700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,8 +796,8 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -801,44 +805,47 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E9" s="3">
         <v>96200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>94000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>70200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,44 +864,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>38700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>43000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,13 +1064,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1065,26 +1085,26 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>40600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1114,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1103,43 +1123,46 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E15" s="3">
         <v>4700</v>
       </c>
       <c r="F15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G15" s="3">
         <v>4800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4700</v>
       </c>
       <c r="H15" s="3">
         <v>4700</v>
       </c>
       <c r="I15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J15" s="3">
         <v>4200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2500</v>
       </c>
       <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>2500</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1173,8 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,43 +1204,44 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E17" s="3">
         <v>125800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>120500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>114400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>65900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1223,10 +1250,10 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1234,44 +1261,47 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,44 +1345,45 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,44 +1402,47 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-28400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,43 +1461,46 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6600</v>
       </c>
       <c r="G22" s="3">
         <v>6600</v>
       </c>
       <c r="H22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1511,8 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1480,55 +1520,58 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1536,49 +1579,52 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1697,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1704,55 +1756,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-29400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,44 +2051,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,55 +2110,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-29400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2228,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-29400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2208,69 +2287,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,55 +2399,56 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E41" s="3">
         <v>27600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,55 +2515,58 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E43" s="3">
         <v>72100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>69600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>73000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>49100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>55000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2481,55 +2574,58 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>228800</v>
+      </c>
+      <c r="E44" s="3">
         <v>228100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>215100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>212900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>193500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>196000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>191800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>103500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>108800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3">
         <v>121100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2537,52 +2633,55 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>100</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2593,55 +2692,58 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>330900</v>
+      </c>
+      <c r="E46" s="3">
         <v>338200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>318400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>320200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>312800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>303700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>190100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>212000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>222600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>193800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2675,27 +2780,27 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>305000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>304300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>303000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>301400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E48" s="3">
         <v>80500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>75500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>59500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,55 +2869,58 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>479400</v>
+      </c>
+      <c r="E49" s="3">
         <v>490700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>503100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>509600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>512600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>519600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>520700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>338100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>288400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
         <v>382100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900300</v>
+      </c>
+      <c r="E54" s="3">
         <v>920700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>923600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>922600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>918800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>914400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>902300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>596500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>540300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>552400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>599900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>304200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>302700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,55 +3271,56 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E57" s="3">
         <v>57600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>26200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3221,7 +3355,7 @@
         <v>3800</v>
       </c>
       <c r="J58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="K58" s="3">
         <v>7000</v>
@@ -3229,14 +3363,14 @@
       <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3244,8 +3378,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3253,159 +3387,168 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E59" s="3">
         <v>32800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>96300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>92400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>11300</v>
       </c>
       <c r="P59" s="3">
         <v>11300</v>
       </c>
       <c r="Q59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E60" s="3">
         <v>94200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>101800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>133000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>11300</v>
       </c>
       <c r="P60" s="3">
         <v>11300</v>
       </c>
       <c r="Q60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>435700</v>
+      </c>
+      <c r="E61" s="3">
         <v>432300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>412900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>383500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>384100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>384700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>385300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>172700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>126300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>127800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E62" s="3">
         <v>64800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>68900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>73500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>93300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>50200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E66" s="3">
         <v>591300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>583600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>608700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>605300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>612200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>611500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>287700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>244200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>11300</v>
       </c>
       <c r="P66" s="3">
         <v>11300</v>
       </c>
       <c r="Q66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-34800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1300</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,55 +4354,58 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315100</v>
+      </c>
+      <c r="E76" s="3">
         <v>329300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>340000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>313900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>313500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>302100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>308800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>307200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>308200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>294300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>487800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>292900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>291400</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,116 +4472,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-29400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,55 +4620,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3200</v>
       </c>
       <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>3200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,55 +4972,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,55 +5056,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,53 +5231,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-188100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-210500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-298700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,41 +5549,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>17800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>204100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>46100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>190900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5348,13 +5594,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>301400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5362,55 +5608,58 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>600</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
       </c>
       <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,134 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E8" s="3">
         <v>135300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>133500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>130600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>132700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>105800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,8 +802,8 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -808,47 +811,50 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E9" s="3">
         <v>100300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>96200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>94000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>70200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,47 +873,50 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E10" s="3">
         <v>35000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>39600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>43000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1083,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1088,26 +1107,26 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>40600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1136,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,37 +1157,37 @@
         <v>4600</v>
       </c>
       <c r="E15" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F15" s="3">
         <v>4700</v>
       </c>
       <c r="G15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H15" s="3">
         <v>4800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4700</v>
       </c>
       <c r="I15" s="3">
         <v>4700</v>
       </c>
       <c r="J15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K15" s="3">
         <v>4200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2500</v>
       </c>
       <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>2500</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -1176,8 +1198,8 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,46 +1230,47 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E17" s="3">
         <v>128500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>114400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>65900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1253,10 +1279,10 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1264,47 +1290,50 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-33300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,47 +1378,48 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1405,47 +1438,50 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="E21" s="3">
         <v>13100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-28400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,46 +1500,49 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E22" s="3">
         <v>8200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6600</v>
       </c>
       <c r="H22" s="3">
         <v>6600</v>
       </c>
       <c r="I22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>200</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1514,8 +1553,8 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1523,58 +1562,61 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1582,52 +1624,55 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1641,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,58 +1748,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1759,58 +1810,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-29400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1818,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,47 +2120,50 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2113,58 +2182,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-29400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2172,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,58 +2306,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-29400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2290,72 +2368,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,58 +2485,59 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E41" s="3">
         <v>20800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
@@ -2459,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,58 +2607,61 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E43" s="3">
         <v>69400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>72100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>69600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>73000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
         <v>55000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2577,58 +2669,61 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E44" s="3">
         <v>228800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>228100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>215100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>212900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>193500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>196000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>191800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>103500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>108800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
         <v>121100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2636,55 +2731,58 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2695,58 +2793,61 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>324800</v>
+      </c>
+      <c r="E46" s="3">
         <v>330900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>338200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>318400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>320200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>312800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>303700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>190100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>212000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>222600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
+      <c r="S46" s="3">
+        <v>0</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
@@ -2754,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2783,27 +2887,27 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>305000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>304300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>303000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>301400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +2917,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E48" s="3">
         <v>76700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>84900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>75500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,58 +2979,61 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>438500</v>
+      </c>
+      <c r="E49" s="3">
         <v>479400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>490700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>503100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>509600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>512600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>519600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>520700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>338100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>269700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>288400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
         <v>382100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>13300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>849000</v>
+      </c>
+      <c r="E54" s="3">
         <v>900300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>920700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>923600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>922600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>918800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>914400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>902300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>596500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>540300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>552400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>306000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>599900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>304200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>302700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,58 +3401,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E57" s="3">
         <v>50900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>34200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>26200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3331,8 +3461,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3358,7 +3491,7 @@
         <v>3800</v>
       </c>
       <c r="K58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="L58" s="3">
         <v>7000</v>
@@ -3366,14 +3499,14 @@
       <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3381,8 +3514,8 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3390,168 +3523,177 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E59" s="3">
         <v>35300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>92800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>92400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>11300</v>
       </c>
       <c r="Q59" s="3">
         <v>11300</v>
       </c>
       <c r="R59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E60" s="3">
         <v>89900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>101800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>133000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>11300</v>
       </c>
       <c r="Q60" s="3">
         <v>11300</v>
       </c>
       <c r="R60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>432200</v>
+      </c>
+      <c r="E61" s="3">
         <v>435700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>432300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>412900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>383500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>384100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>384700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>385300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>172700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>126300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>127800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3709,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E62" s="3">
         <v>59600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>93200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>50200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>60700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>574500</v>
+      </c>
+      <c r="E66" s="3">
         <v>585300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>591300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>583600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>608700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>605300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>612200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>611500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>287700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>244200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>11300</v>
       </c>
       <c r="Q66" s="3">
         <v>11300</v>
       </c>
       <c r="R66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4291,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-34800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4100</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1300</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>0</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4180,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,58 +4539,61 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>274600</v>
+      </c>
+      <c r="E76" s="3">
         <v>315100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>340000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>313900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>313500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>302100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>290800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>308800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>307200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>308200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>294300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>487800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>292900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>291400</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4416,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,122 +4663,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-29400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4598,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,58 +4818,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3200</v>
       </c>
       <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>3200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4680,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,58 +5188,61 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5034,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,58 +5276,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,56 +5460,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-188100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-82200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-210500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-298700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5293,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,44 +5794,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>204100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>46100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>190900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5597,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>301400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5611,58 +5856,61 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>600</v>
       </c>
       <c r="L101" s="3">
+        <v>600</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5670,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FREE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>FREE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,202 +665,216 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F8" s="3">
         <v>138900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>135300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>133500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>130600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>132700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>128900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>126500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>75700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>67000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>66800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>66000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F9" s="3">
         <v>110600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>100300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>96200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>91000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>94000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>85900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>85100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>70200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>50500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>48400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>40200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,53 +890,59 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>37300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>39600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>38700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>43000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>26600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>25900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +958,14 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +988,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1052,14 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,22 +1120,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>46500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1110,108 +1150,120 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>40600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3">
         <v>4600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4800</v>
       </c>
       <c r="I15" s="3">
         <v>4700</v>
       </c>
       <c r="J15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K15" s="3">
         <v>4700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M15" s="3">
         <v>4200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,115 +1283,123 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>129400</v>
+      </c>
+      <c r="F17" s="3">
         <v>185100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>128500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>125800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>123500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>126300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>115400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>120500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>114400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>82500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>65900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>72000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>99300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-46200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-33300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1415,14 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,53 +1445,55 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2800</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,53 +1509,59 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>13600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>11800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-28400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,182 +1577,200 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F22" s="3">
         <v>9900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>8200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>6600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-57900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-15700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-31800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1689,8 +1781,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1849,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-60300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-28700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-60300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-29400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2053,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2121,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2189,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,53 +2257,59 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2800</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,70 +2325,82 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-60300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-29400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2461,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-60300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-29400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2632,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2658,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>20800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>27600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>29400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>28300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>49100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>61600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>11400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
+      <c r="U41" s="3">
+        <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,185 +2790,203 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F43" s="3">
         <v>66700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>69400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>72100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>73100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>69600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>73000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>76100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>72200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>56400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>54300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>49100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
         <v>55000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>218400</v>
+      </c>
+      <c r="F44" s="3">
         <v>219000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>228800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>228100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>215100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>212900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>193500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>196000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>191800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>111700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>103500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>108800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3">
         <v>121100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>7300</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>100</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
@@ -2796,70 +2994,82 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>320500</v>
+      </c>
+      <c r="F46" s="3">
         <v>324800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>330900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>338200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>325800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>318400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>320200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>312800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>303700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>190100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>212000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>222600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>193800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2890,86 +3100,92 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>305000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>304300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>303000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>301400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F48" s="3">
         <v>76300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>76700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>80500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>84000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>84900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>75500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>72400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>68500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>59500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>53800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>37400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,70 +3198,82 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>436400</v>
+      </c>
+      <c r="F49" s="3">
         <v>438500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>479400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>490700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>503100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>509600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>512600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>519600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>520700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>338100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>269700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>288400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3">
         <v>382100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3334,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,25 +3402,31 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G52" s="3">
         <v>13300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>11300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9600</v>
       </c>
       <c r="I52" s="3">
         <v>10600</v>
@@ -3195,43 +3435,49 @@
         <v>9600</v>
       </c>
       <c r="K52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M52" s="3">
         <v>9400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3538,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>840100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>840300</v>
+      </c>
+      <c r="F54" s="3">
         <v>849000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>920700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>923600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>922600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>918800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>914400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>902300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>596500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>540300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>552400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>306000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>599900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>304200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>302700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3636,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,70 +3662,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F57" s="3">
         <v>47000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>50900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>57600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>55200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>34200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>25200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>21600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>21900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
         <v>26200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3494,212 +3762,230 @@
         <v>3800</v>
       </c>
       <c r="L58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="M58" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>7000</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F59" s="3">
         <v>36300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>35300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>32800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>42600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>92800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>85900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>96300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>92400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>32700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>33200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>35000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>11300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>11300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F60" s="3">
         <v>87000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>94200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>101800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>151700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>131700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>134300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>133000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>64900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>63800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>54300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>427600</v>
+      </c>
+      <c r="F61" s="3">
         <v>432200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>435700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>432300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>412900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>383500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>384100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>384700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>385300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>172700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>126300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>127800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3712,56 +3998,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F62" s="3">
         <v>55200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>59600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>64800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>68900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>73500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>89500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>93300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>93200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>50200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>45000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>52600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>11300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>60700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +4066,14 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +4134,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4202,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4270,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>584300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>579700</v>
+      </c>
+      <c r="F66" s="3">
         <v>574500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>585300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>591300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>583600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>608700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>605300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>612200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>611500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>287700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>233100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>244200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>112100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4368,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4432,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4500,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4568,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4636,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-85200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-22400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-26000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-38500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-25400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-20300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1300</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
+      <c r="U72" s="3">
+        <v>0</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4772,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4840,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4908,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>255800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>260500</v>
+      </c>
+      <c r="F76" s="3">
         <v>274600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>315100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>329300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>340000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>313900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>313500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>302100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>290800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>308800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>307200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>308200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>294300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>487800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>292900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>291400</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
+      <c r="U76" s="3">
+        <v>0</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +5044,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-60300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-29400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5215,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>6800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5347,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5415,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5483,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5551,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5619,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F89" s="3">
         <v>11500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>16000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>14600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-15300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>15000</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5717,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5849,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5917,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-188100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-82200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-210500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-298700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +6015,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +6079,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +6147,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +6215,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,117 +6283,129 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>17800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>204100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>46100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>190900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>301400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5915,72 +6413,84 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-32200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
